--- a/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_ce_calibrated.xlsx
+++ b/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_ce_calibrated.xlsx
@@ -24206,112 +24206,112 @@
         <v>1</v>
       </c>
       <c r="J189">
-        <v>0.5</v>
+        <v>0.5001959399699419</v>
       </c>
       <c r="K189">
-        <v>0.5</v>
+        <v>0.4994554971564981</v>
       </c>
       <c r="L189">
-        <v>0.5</v>
+        <v>0.4985227117644849</v>
       </c>
       <c r="M189">
-        <v>0.5</v>
+        <v>0.5014597289825531</v>
       </c>
       <c r="N189">
-        <v>0.5</v>
+        <v>0.50002390190007</v>
       </c>
       <c r="O189">
-        <v>0.5</v>
+        <v>0.5005828184573468</v>
       </c>
       <c r="P189">
-        <v>0.5</v>
+        <v>0.5000905544271474</v>
       </c>
       <c r="Q189">
-        <v>0.5</v>
+        <v>0.5008970114909341</v>
       </c>
       <c r="R189">
-        <v>0.5</v>
+        <v>0.4981239699894267</v>
       </c>
       <c r="S189">
-        <v>0.5</v>
+        <v>0.4999771672364903</v>
       </c>
       <c r="T189">
-        <v>0.5</v>
+        <v>0.5014549512835915</v>
       </c>
       <c r="U189">
-        <v>0.5</v>
+        <v>0.4997121051273535</v>
       </c>
       <c r="V189">
-        <v>0.5</v>
+        <v>0.4989465232176602</v>
       </c>
       <c r="W189">
-        <v>0.5</v>
+        <v>0.5001797008404875</v>
       </c>
       <c r="X189">
-        <v>0.5</v>
+        <v>0.499469045218198</v>
       </c>
       <c r="Y189">
-        <v>0.5</v>
+        <v>0.5004830794763829</v>
       </c>
       <c r="Z189">
-        <v>0.5</v>
+        <v>0.4977260264587775</v>
       </c>
       <c r="AA189">
-        <v>0.5</v>
+        <v>0.499737028149817</v>
       </c>
       <c r="AB189">
-        <v>0.5</v>
+        <v>0.5001633826547071</v>
       </c>
       <c r="AC189">
-        <v>0.5</v>
+        <v>0.5003168373746313</v>
       </c>
       <c r="AD189">
-        <v>0.5</v>
+        <v>0.4986469926876005</v>
       </c>
       <c r="AE189">
-        <v>0.5</v>
+        <v>0.501279301611269</v>
       </c>
       <c r="AF189">
-        <v>0.5</v>
+        <v>0.5016208561902182</v>
       </c>
       <c r="AG189">
-        <v>0.5</v>
+        <v>0.498678692421155</v>
       </c>
       <c r="AH189">
-        <v>0.5</v>
+        <v>0.5020542209216451</v>
       </c>
       <c r="AI189">
-        <v>0.5</v>
+        <v>0.4984242602081742</v>
       </c>
       <c r="AJ189">
-        <v>0.5</v>
+        <v>0.4994282160872947</v>
       </c>
       <c r="AK189">
-        <v>0.5</v>
+        <v>0.499410248826514</v>
       </c>
       <c r="AL189">
-        <v>0.5</v>
+        <v>0.5000105253329139</v>
       </c>
       <c r="AM189">
-        <v>0.5</v>
+        <v>0.5006451581638524</v>
       </c>
       <c r="AN189">
-        <v>0.5</v>
+        <v>0.4999816935622244</v>
       </c>
       <c r="AO189">
-        <v>0.5</v>
+        <v>0.5006141703773952</v>
       </c>
       <c r="AP189">
-        <v>0.5</v>
+        <v>0.4983990814920217</v>
       </c>
       <c r="AQ189">
-        <v>0.5</v>
+        <v>0.4991434581359516</v>
       </c>
       <c r="AR189">
-        <v>0.5</v>
+        <v>0.5014239612302753</v>
       </c>
       <c r="AS189">
-        <v>0.5</v>
+        <v>0.5001771011462337</v>
       </c>
     </row>
     <row r="190" spans="1:45">
@@ -24328,112 +24328,112 @@
         <v>1</v>
       </c>
       <c r="J190">
-        <v>0.5</v>
+        <v>0.4998040600300582</v>
       </c>
       <c r="K190">
-        <v>0.5</v>
+        <v>0.5005445028435018</v>
       </c>
       <c r="L190">
-        <v>0.5</v>
+        <v>0.5014772882355151</v>
       </c>
       <c r="M190">
-        <v>0.5</v>
+        <v>0.4985402710174469</v>
       </c>
       <c r="N190">
-        <v>0.5</v>
+        <v>0.49997609809993</v>
       </c>
       <c r="O190">
-        <v>0.5</v>
+        <v>0.4994171815426533</v>
       </c>
       <c r="P190">
-        <v>0.5</v>
+        <v>0.4999094455728524</v>
       </c>
       <c r="Q190">
-        <v>0.5</v>
+        <v>0.4991029885090659</v>
       </c>
       <c r="R190">
-        <v>0.5</v>
+        <v>0.5018760300105735</v>
       </c>
       <c r="S190">
-        <v>0.5</v>
+        <v>0.5000228327635096</v>
       </c>
       <c r="T190">
-        <v>0.5</v>
+        <v>0.4985450487164085</v>
       </c>
       <c r="U190">
-        <v>0.5</v>
+        <v>0.5002878948726465</v>
       </c>
       <c r="V190">
-        <v>0.5</v>
+        <v>0.5010534767823398</v>
       </c>
       <c r="W190">
-        <v>0.5</v>
+        <v>0.4998202991595125</v>
       </c>
       <c r="X190">
-        <v>0.5</v>
+        <v>0.5005309547818021</v>
       </c>
       <c r="Y190">
-        <v>0.5</v>
+        <v>0.499516920523617</v>
       </c>
       <c r="Z190">
-        <v>0.5</v>
+        <v>0.5022739735412225</v>
       </c>
       <c r="AA190">
-        <v>0.5</v>
+        <v>0.5002629718501831</v>
       </c>
       <c r="AB190">
-        <v>0.5</v>
+        <v>0.4998366173452928</v>
       </c>
       <c r="AC190">
-        <v>0.5</v>
+        <v>0.4996831626253687</v>
       </c>
       <c r="AD190">
-        <v>0.5</v>
+        <v>0.5013530073123995</v>
       </c>
       <c r="AE190">
-        <v>0.5</v>
+        <v>0.4987206983887312</v>
       </c>
       <c r="AF190">
-        <v>0.5</v>
+        <v>0.4983791438097817</v>
       </c>
       <c r="AG190">
-        <v>0.5</v>
+        <v>0.5013213075788449</v>
       </c>
       <c r="AH190">
-        <v>0.5</v>
+        <v>0.4979457790783549</v>
       </c>
       <c r="AI190">
-        <v>0.5</v>
+        <v>0.5015757397918258</v>
       </c>
       <c r="AJ190">
-        <v>0.5</v>
+        <v>0.5005717839127054</v>
       </c>
       <c r="AK190">
-        <v>0.5</v>
+        <v>0.500589751173486</v>
       </c>
       <c r="AL190">
-        <v>0.5</v>
+        <v>0.4999894746670863</v>
       </c>
       <c r="AM190">
-        <v>0.5</v>
+        <v>0.4993548418361476</v>
       </c>
       <c r="AN190">
-        <v>0.5</v>
+        <v>0.5000183064377756</v>
       </c>
       <c r="AO190">
-        <v>0.5</v>
+        <v>0.4993858296226046</v>
       </c>
       <c r="AP190">
-        <v>0.5</v>
+        <v>0.5016009185079785</v>
       </c>
       <c r="AQ190">
-        <v>0.5</v>
+        <v>0.5008565418640484</v>
       </c>
       <c r="AR190">
-        <v>0.5</v>
+        <v>0.4985760387697247</v>
       </c>
       <c r="AS190">
-        <v>0.5</v>
+        <v>0.4998228988537663</v>
       </c>
     </row>
     <row r="191" spans="1:45">
@@ -25426,112 +25426,112 @@
         <v>1</v>
       </c>
       <c r="J199">
-        <v>0.5</v>
+        <v>0.5000953595366985</v>
       </c>
       <c r="K199">
-        <v>0.5</v>
+        <v>0.5010098861816284</v>
       </c>
       <c r="L199">
-        <v>0.5</v>
+        <v>0.4990949965256966</v>
       </c>
       <c r="M199">
-        <v>0.5</v>
+        <v>0.5001089636375107</v>
       </c>
       <c r="N199">
-        <v>0.5</v>
+        <v>0.499567367758339</v>
       </c>
       <c r="O199">
-        <v>0.5</v>
+        <v>0.5003910778764442</v>
       </c>
       <c r="P199">
-        <v>0.5</v>
+        <v>0.4986506536402695</v>
       </c>
       <c r="Q199">
-        <v>0.5</v>
+        <v>0.5000827041940688</v>
       </c>
       <c r="R199">
-        <v>0.5</v>
+        <v>0.4986458360514598</v>
       </c>
       <c r="S199">
-        <v>0.5</v>
+        <v>0.4976298981539156</v>
       </c>
       <c r="T199">
-        <v>0.5</v>
+        <v>0.50095576645373</v>
       </c>
       <c r="U199">
-        <v>0.5</v>
+        <v>0.5004702797221343</v>
       </c>
       <c r="V199">
-        <v>0.5</v>
+        <v>0.5001665762383082</v>
       </c>
       <c r="W199">
-        <v>0.5</v>
+        <v>0.5010713439303617</v>
       </c>
       <c r="X199">
-        <v>0.5</v>
+        <v>0.5007664548595054</v>
       </c>
       <c r="Y199">
-        <v>0.5</v>
+        <v>0.5002044144745817</v>
       </c>
       <c r="Z199">
-        <v>0.5</v>
+        <v>0.5000196623351461</v>
       </c>
       <c r="AA199">
-        <v>0.5</v>
+        <v>0.4985831521550817</v>
       </c>
       <c r="AB199">
-        <v>0.5</v>
+        <v>0.5006247472746485</v>
       </c>
       <c r="AC199">
-        <v>0.5</v>
+        <v>0.4983169767160076</v>
       </c>
       <c r="AD199">
-        <v>0.5</v>
+        <v>0.5000036014068182</v>
       </c>
       <c r="AE199">
-        <v>0.5</v>
+        <v>0.4999297824185339</v>
       </c>
       <c r="AF199">
-        <v>0.5</v>
+        <v>0.4993740209109854</v>
       </c>
       <c r="AG199">
-        <v>0.5</v>
+        <v>0.499424051197805</v>
       </c>
       <c r="AH199">
-        <v>0.5</v>
+        <v>0.5006172439817207</v>
       </c>
       <c r="AI199">
-        <v>0.5</v>
+        <v>0.5002942189504602</v>
       </c>
       <c r="AJ199">
-        <v>0.5</v>
+        <v>0.498539933936489</v>
       </c>
       <c r="AK199">
-        <v>0.5</v>
+        <v>0.5013281175840261</v>
       </c>
       <c r="AL199">
-        <v>0.5</v>
+        <v>0.4988779192044585</v>
       </c>
       <c r="AM199">
-        <v>0.5</v>
+        <v>0.5006501223653802</v>
       </c>
       <c r="AN199">
-        <v>0.5</v>
+        <v>0.5014524048886403</v>
       </c>
       <c r="AO199">
-        <v>0.5</v>
+        <v>0.5009438490643715</v>
       </c>
       <c r="AP199">
-        <v>0.5</v>
+        <v>0.4994280078643403</v>
       </c>
       <c r="AQ199">
-        <v>0.5</v>
+        <v>0.4997456343131548</v>
       </c>
       <c r="AR199">
-        <v>0.5</v>
+        <v>0.5008178464420205</v>
       </c>
       <c r="AS199">
-        <v>0.5</v>
+        <v>0.500901342708206</v>
       </c>
     </row>
     <row r="200" spans="1:45">
@@ -25548,112 +25548,112 @@
         <v>1</v>
       </c>
       <c r="J200">
-        <v>0.5</v>
+        <v>0.4999046404633015</v>
       </c>
       <c r="K200">
-        <v>0.5</v>
+        <v>0.4989901138183716</v>
       </c>
       <c r="L200">
-        <v>0.5</v>
+        <v>0.5009050034743033</v>
       </c>
       <c r="M200">
-        <v>0.5</v>
+        <v>0.4998910363624893</v>
       </c>
       <c r="N200">
-        <v>0.5</v>
+        <v>0.5004326322416609</v>
       </c>
       <c r="O200">
-        <v>0.5</v>
+        <v>0.4996089221235557</v>
       </c>
       <c r="P200">
-        <v>0.5</v>
+        <v>0.5013493463597304</v>
       </c>
       <c r="Q200">
-        <v>0.5</v>
+        <v>0.4999172958059311</v>
       </c>
       <c r="R200">
-        <v>0.5</v>
+        <v>0.5013541639485402</v>
       </c>
       <c r="S200">
-        <v>0.5</v>
+        <v>0.5023701018460844</v>
       </c>
       <c r="T200">
-        <v>0.5</v>
+        <v>0.4990442335462701</v>
       </c>
       <c r="U200">
-        <v>0.5</v>
+        <v>0.4995297202778657</v>
       </c>
       <c r="V200">
-        <v>0.5</v>
+        <v>0.4998334237616918</v>
       </c>
       <c r="W200">
-        <v>0.5</v>
+        <v>0.4989286560696384</v>
       </c>
       <c r="X200">
-        <v>0.5</v>
+        <v>0.4992335451404945</v>
       </c>
       <c r="Y200">
-        <v>0.5</v>
+        <v>0.4997955855254184</v>
       </c>
       <c r="Z200">
-        <v>0.5</v>
+        <v>0.4999803376648539</v>
       </c>
       <c r="AA200">
-        <v>0.5</v>
+        <v>0.5014168478449182</v>
       </c>
       <c r="AB200">
-        <v>0.5</v>
+        <v>0.4993752527253516</v>
       </c>
       <c r="AC200">
-        <v>0.5</v>
+        <v>0.5016830232839924</v>
       </c>
       <c r="AD200">
-        <v>0.5</v>
+        <v>0.4999963985931817</v>
       </c>
       <c r="AE200">
-        <v>0.5</v>
+        <v>0.5000702175814661</v>
       </c>
       <c r="AF200">
-        <v>0.5</v>
+        <v>0.5006259790890147</v>
       </c>
       <c r="AG200">
-        <v>0.5</v>
+        <v>0.5005759488021949</v>
       </c>
       <c r="AH200">
-        <v>0.5</v>
+        <v>0.4993827560182794</v>
       </c>
       <c r="AI200">
-        <v>0.5</v>
+        <v>0.4997057810495398</v>
       </c>
       <c r="AJ200">
-        <v>0.5</v>
+        <v>0.5014600660635111</v>
       </c>
       <c r="AK200">
-        <v>0.5</v>
+        <v>0.4986718824159739</v>
       </c>
       <c r="AL200">
-        <v>0.5</v>
+        <v>0.5011220807955413</v>
       </c>
       <c r="AM200">
-        <v>0.5</v>
+        <v>0.4993498776346198</v>
       </c>
       <c r="AN200">
-        <v>0.5</v>
+        <v>0.4985475951113597</v>
       </c>
       <c r="AO200">
-        <v>0.5</v>
+        <v>0.4990561509356284</v>
       </c>
       <c r="AP200">
-        <v>0.5</v>
+        <v>0.5005719921356598</v>
       </c>
       <c r="AQ200">
-        <v>0.5</v>
+        <v>0.5002543656868453</v>
       </c>
       <c r="AR200">
-        <v>0.5</v>
+        <v>0.4991821535579795</v>
       </c>
       <c r="AS200">
-        <v>0.5</v>
+        <v>0.499098657291794</v>
       </c>
     </row>
     <row r="201" spans="1:45">
@@ -26646,112 +26646,112 @@
         <v>1</v>
       </c>
       <c r="J209">
-        <v>0.5</v>
+        <v>0.4993573652989817</v>
       </c>
       <c r="K209">
-        <v>0.5</v>
+        <v>0.4995605526760357</v>
       </c>
       <c r="L209">
-        <v>0.5</v>
+        <v>0.500529349058352</v>
       </c>
       <c r="M209">
-        <v>0.5</v>
+        <v>0.4977776126666305</v>
       </c>
       <c r="N209">
-        <v>0.5</v>
+        <v>0.5007102490165437</v>
       </c>
       <c r="O209">
-        <v>0.5</v>
+        <v>0.5000128127009223</v>
       </c>
       <c r="P209">
-        <v>0.5</v>
+        <v>0.4979523470458462</v>
       </c>
       <c r="Q209">
-        <v>0.5</v>
+        <v>0.4997047546858348</v>
       </c>
       <c r="R209">
-        <v>0.5</v>
+        <v>0.5016903670037609</v>
       </c>
       <c r="S209">
-        <v>0.5</v>
+        <v>0.4985055959706247</v>
       </c>
       <c r="T209">
-        <v>0.5</v>
+        <v>0.5013857932191152</v>
       </c>
       <c r="U209">
-        <v>0.5</v>
+        <v>0.4999647494487516</v>
       </c>
       <c r="V209">
-        <v>0.5</v>
+        <v>0.5006921655896605</v>
       </c>
       <c r="W209">
-        <v>0.5</v>
+        <v>0.498383253175509</v>
       </c>
       <c r="X209">
-        <v>0.5</v>
+        <v>0.4999542491706924</v>
       </c>
       <c r="Y209">
-        <v>0.5</v>
+        <v>0.4999004314184792</v>
       </c>
       <c r="Z209">
-        <v>0.5</v>
+        <v>0.5010687715271012</v>
       </c>
       <c r="AA209">
-        <v>0.5</v>
+        <v>0.4983138143100099</v>
       </c>
       <c r="AB209">
-        <v>0.5</v>
+        <v>0.5010099558686745</v>
       </c>
       <c r="AC209">
-        <v>0.5</v>
+        <v>0.4980806281254641</v>
       </c>
       <c r="AD209">
-        <v>0.5</v>
+        <v>0.4992877725306219</v>
       </c>
       <c r="AE209">
-        <v>0.5</v>
+        <v>0.5016044593752946</v>
       </c>
       <c r="AF209">
-        <v>0.5</v>
+        <v>0.4998200119697597</v>
       </c>
       <c r="AG209">
-        <v>0.5</v>
+        <v>0.5009333777353883</v>
       </c>
       <c r="AH209">
-        <v>0.5</v>
+        <v>0.5000783650370775</v>
       </c>
       <c r="AI209">
-        <v>0.5</v>
+        <v>0.499700644555801</v>
       </c>
       <c r="AJ209">
-        <v>0.5</v>
+        <v>0.499633737840627</v>
       </c>
       <c r="AK209">
-        <v>0.5</v>
+        <v>0.5012095228702133</v>
       </c>
       <c r="AL209">
-        <v>0.5</v>
+        <v>0.4993590023012166</v>
       </c>
       <c r="AM209">
-        <v>0.5</v>
+        <v>0.5013692165004504</v>
       </c>
       <c r="AN209">
-        <v>0.5</v>
+        <v>0.5002234222752312</v>
       </c>
       <c r="AO209">
-        <v>0.5</v>
+        <v>0.499344715431887</v>
       </c>
       <c r="AP209">
-        <v>0.5</v>
+        <v>0.4996770772122552</v>
       </c>
       <c r="AQ209">
-        <v>0.5</v>
+        <v>0.5011417068989161</v>
       </c>
       <c r="AR209">
-        <v>0.5</v>
+        <v>0.5007577109164969</v>
       </c>
       <c r="AS209">
-        <v>0.5</v>
+        <v>0.4996228705272109</v>
       </c>
     </row>
     <row r="210" spans="1:45">
@@ -26768,112 +26768,112 @@
         <v>1</v>
       </c>
       <c r="J210">
-        <v>0.5</v>
+        <v>0.5006426347010182</v>
       </c>
       <c r="K210">
-        <v>0.5</v>
+        <v>0.5004394473239643</v>
       </c>
       <c r="L210">
-        <v>0.5</v>
+        <v>0.499470650941648</v>
       </c>
       <c r="M210">
-        <v>0.5</v>
+        <v>0.5022223873333695</v>
       </c>
       <c r="N210">
-        <v>0.5</v>
+        <v>0.4992897509834564</v>
       </c>
       <c r="O210">
-        <v>0.5</v>
+        <v>0.4999871872990778</v>
       </c>
       <c r="P210">
-        <v>0.5</v>
+        <v>0.5020476529541538</v>
       </c>
       <c r="Q210">
-        <v>0.5</v>
+        <v>0.5002952453141652</v>
       </c>
       <c r="R210">
-        <v>0.5</v>
+        <v>0.4983096329962392</v>
       </c>
       <c r="S210">
-        <v>0.5</v>
+        <v>0.5014944040293754</v>
       </c>
       <c r="T210">
-        <v>0.5</v>
+        <v>0.4986142067808848</v>
       </c>
       <c r="U210">
-        <v>0.5</v>
+        <v>0.5000352505512484</v>
       </c>
       <c r="V210">
-        <v>0.5</v>
+        <v>0.4993078344103397</v>
       </c>
       <c r="W210">
-        <v>0.5</v>
+        <v>0.501616746824491</v>
       </c>
       <c r="X210">
-        <v>0.5</v>
+        <v>0.5000457508293075</v>
       </c>
       <c r="Y210">
-        <v>0.5</v>
+        <v>0.5000995685815209</v>
       </c>
       <c r="Z210">
-        <v>0.5</v>
+        <v>0.4989312284728988</v>
       </c>
       <c r="AA210">
-        <v>0.5</v>
+        <v>0.5016861856899899</v>
       </c>
       <c r="AB210">
-        <v>0.5</v>
+        <v>0.4989900441313255</v>
       </c>
       <c r="AC210">
-        <v>0.5</v>
+        <v>0.5019193718745359</v>
       </c>
       <c r="AD210">
-        <v>0.5</v>
+        <v>0.500712227469378</v>
       </c>
       <c r="AE210">
-        <v>0.5</v>
+        <v>0.4983955406247052</v>
       </c>
       <c r="AF210">
-        <v>0.5</v>
+        <v>0.5001799880302402</v>
       </c>
       <c r="AG210">
-        <v>0.5</v>
+        <v>0.4990666222646117</v>
       </c>
       <c r="AH210">
-        <v>0.5</v>
+        <v>0.4999216349629224</v>
       </c>
       <c r="AI210">
-        <v>0.5</v>
+        <v>0.500299355444199</v>
       </c>
       <c r="AJ210">
-        <v>0.5</v>
+        <v>0.5003662621593729</v>
       </c>
       <c r="AK210">
-        <v>0.5</v>
+        <v>0.4987904771297869</v>
       </c>
       <c r="AL210">
-        <v>0.5</v>
+        <v>0.5006409976987835</v>
       </c>
       <c r="AM210">
-        <v>0.5</v>
+        <v>0.4986307834995496</v>
       </c>
       <c r="AN210">
-        <v>0.5</v>
+        <v>0.4997765777247687</v>
       </c>
       <c r="AO210">
-        <v>0.5</v>
+        <v>0.5006552845681131</v>
       </c>
       <c r="AP210">
-        <v>0.5</v>
+        <v>0.5003229227877447</v>
       </c>
       <c r="AQ210">
-        <v>0.5</v>
+        <v>0.498858293101084</v>
       </c>
       <c r="AR210">
-        <v>0.5</v>
+        <v>0.4992422890835032</v>
       </c>
       <c r="AS210">
-        <v>0.5</v>
+        <v>0.500377129472789</v>
       </c>
     </row>
     <row r="211" spans="1:45">
